--- a/dictionaries/EU_countries.xlsx
+++ b/dictionaries/EU_countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{330BB6D2-8D63-42A6-8F87-668C8D8EB298}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0D7319-8EE2-4DA2-A65A-D2284C2EDA1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>code</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>Sweden</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>EU27_2020</t>
+  </si>
+  <si>
+    <t>European Union - 27 countries (from 2020)</t>
+  </si>
+  <si>
+    <t>EU28</t>
+  </si>
+  <si>
+    <t>European Union - 28 countries (2013-2020)</t>
+  </si>
+  <si>
+    <t>EU27_2007</t>
+  </si>
+  <si>
+    <t>European Union - 27 countries (2007-2013)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +545,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -750,6 +774,38 @@
         <v>55</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1"/>
     </row>
